--- a/src/test/resources/test14_1.xlsx
+++ b/src/test/resources/test14_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>email</t>
   </si>
@@ -39,7 +39,7 @@
     <t>0ba7c767-50d5-4506-9f62-79e52aa21426</t>
   </si>
   <si>
-    <t>2022-06-28 10:23:28.507</t>
+    <t>2022-06-29 10:23:28.507</t>
   </si>
   <si>
     <t>false</t>
@@ -73,27 +73,6 @@
   </si>
   <si>
     <t>update_user</t>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t>てすと</t>
-  </si>
-  <si>
-    <t>111-1111</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>090-1234-5678</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>2022-06-28 10:58:03.205087</t>
   </si>
 </sst>
 </file>
@@ -134,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -219,50 +198,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -291,18 +233,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1445,7 +1375,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1497,44 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" t="s" s="13">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="abc@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
